--- a/收款类产品支持银行及限额表/认证收款/新认证支付支持银行限额表-连连支付（更新于19.09.20）.xlsx
+++ b/收款类产品支持银行及限额表/认证收款/新认证支付支持银行限额表-连连支付（更新于19.09.20）.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20346"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0075A184-8B8B-459A-9354-81C04ABCF161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1610643-EB76-429F-B988-F75DCD6806F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>工商银行</t>
   </si>
@@ -334,6 +334,10 @@
   </si>
   <si>
     <t>5000元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1万</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -916,7 +920,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.33203125" defaultRowHeight="15"/>
@@ -1055,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>17</v>
@@ -1064,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="15">
-        <v>43570</v>
+        <v>43728</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>74</v>
